--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:21:23-04:00</t>
+    <t>2023-04-28T13:01:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T13:01:52-04:00</t>
+    <t>2023-05-05T10:26:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:26:54-04:00</t>
+    <t>2023-05-11T16:43:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1954,13 +1958,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1971,10 +1975,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1985,7 +1989,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1994,19 +1998,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2056,13 +2060,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2085,10 +2089,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2099,7 +2103,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2108,16 +2112,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2168,19 +2172,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2197,10 +2201,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2211,28 +2215,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2282,19 +2286,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2311,10 +2315,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2325,7 +2329,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2337,16 +2341,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2372,13 +2376,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2396,19 +2400,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2425,21 +2429,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2451,16 +2455,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2510,25 +2514,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2539,14 +2543,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2565,16 +2569,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2624,7 +2628,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2642,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2653,14 +2657,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2679,16 +2683,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2738,7 +2742,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2750,13 +2754,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2767,14 +2771,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2787,25 +2791,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2854,7 +2858,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2866,13 +2870,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2883,10 +2887,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2900,22 +2904,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2966,7 +2970,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2978,27 +2982,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3009,7 +3013,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3021,13 +3025,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3078,13 +3082,13 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
@@ -3096,7 +3100,7 @@
         <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
@@ -3107,14 +3111,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3133,16 +3137,16 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3180,19 +3184,19 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3204,13 +3208,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -3221,10 +3225,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3235,31 +3239,31 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3284,13 +3288,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3308,39 +3312,39 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3351,7 +3355,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3360,22 +3364,22 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3400,13 +3404,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3424,39 +3428,39 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3464,34 +3468,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3504,7 +3508,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>38</v>
@@ -3540,39 +3544,39 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3580,31 +3584,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3618,7 +3622,7 @@
         <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>38</v>
@@ -3654,39 +3658,39 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3697,7 +3701,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3706,16 +3710,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3766,39 +3770,39 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3809,7 +3813,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3818,19 +3822,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3880,39 +3884,39 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3920,31 +3924,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3970,13 +3974,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -3994,39 +3998,39 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4049,16 +4053,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4108,7 +4112,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4120,13 +4124,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -4137,10 +4141,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4151,7 +4155,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4163,13 +4167,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4220,13 +4224,13 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
@@ -4238,7 +4242,7 @@
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
@@ -4249,14 +4253,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4275,16 +4279,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4334,7 +4338,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4346,13 +4350,13 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4363,14 +4367,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4383,25 +4387,25 @@
         <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4450,7 +4454,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4462,13 +4466,13 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4479,10 +4483,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4490,10 +4494,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4505,13 +4509,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4538,13 +4542,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4562,25 +4566,25 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4591,10 +4595,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4602,10 +4606,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4617,13 +4621,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4674,25 +4678,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4703,10 +4707,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4714,28 +4718,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4762,13 +4766,13 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>38</v>
@@ -4786,39 +4790,39 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4841,13 +4845,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4898,7 +4902,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -4910,13 +4914,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4927,10 +4931,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4941,7 +4945,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4953,13 +4957,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5010,13 +5014,13 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
@@ -5028,7 +5032,7 @@
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
@@ -5039,14 +5043,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5065,16 +5069,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5124,7 +5128,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5136,13 +5140,13 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5153,14 +5157,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5173,25 +5177,25 @@
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5240,7 +5244,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5252,13 +5256,13 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5269,10 +5273,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5280,10 +5284,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5295,13 +5299,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5328,13 +5332,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5352,25 +5356,25 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -5381,10 +5385,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5392,10 +5396,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5407,13 +5411,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5464,25 +5468,25 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5493,10 +5497,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5504,31 +5508,31 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5539,7 +5543,7 @@
         <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>38</v>
@@ -5554,13 +5558,13 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
@@ -5578,7 +5582,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5590,27 +5594,27 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5621,7 +5625,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5630,16 +5634,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5666,13 +5670,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5690,39 +5694,39 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5733,7 +5737,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5745,13 +5749,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5778,13 +5782,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5802,71 +5806,71 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5916,39 +5920,39 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5968,16 +5972,16 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6028,7 +6032,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6040,31 +6044,31 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6083,13 +6087,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6140,7 +6144,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6152,13 +6156,13 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6169,10 +6173,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6186,22 +6190,22 @@
         <v>37</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6252,7 +6256,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6264,27 +6268,27 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6295,7 +6299,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6307,13 +6311,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6364,13 +6368,13 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
@@ -6382,7 +6386,7 @@
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6393,14 +6397,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6419,16 +6423,16 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6478,7 +6482,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6490,13 +6494,13 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6507,14 +6511,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6527,25 +6531,25 @@
         <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6594,7 +6598,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6606,13 +6610,13 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6623,10 +6627,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6640,25 +6644,25 @@
         <v>37</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6684,13 +6688,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -6708,7 +6712,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6720,27 +6724,27 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6751,10 +6755,10 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
@@ -6763,13 +6767,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6820,39 +6824,39 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6863,25 +6867,25 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6932,39 +6936,39 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6984,16 +6988,16 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7044,7 +7048,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -7056,27 +7060,27 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7087,10 +7091,10 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
@@ -7099,16 +7103,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7158,39 +7162,39 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7201,7 +7205,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7213,16 +7217,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7272,43 +7276,43 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7318,25 +7322,25 @@
         <v>37</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7362,13 +7366,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7386,7 +7390,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7398,31 +7402,31 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7432,25 +7436,25 @@
         <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7500,7 +7504,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7512,27 +7516,27 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7552,16 +7556,16 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7612,7 +7616,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7624,13 +7628,13 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7641,10 +7645,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7655,7 +7659,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7667,13 +7671,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7724,13 +7728,13 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
@@ -7742,7 +7746,7 @@
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7753,14 +7757,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7779,16 +7783,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7838,7 +7842,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7850,13 +7854,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7867,14 +7871,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7887,25 +7891,25 @@
         <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7954,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -7966,13 +7970,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7983,21 +7987,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8006,19 +8010,19 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8068,39 +8072,39 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8111,7 +8115,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8123,13 +8127,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8156,13 +8160,13 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -8180,25 +8184,25 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8209,10 +8213,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8223,7 +8227,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8235,13 +8239,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8292,25 +8296,25 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8321,10 +8325,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8347,16 +8351,16 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8406,7 +8410,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8418,13 +8422,13 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8435,10 +8439,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8449,10 +8453,10 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
@@ -8461,16 +8465,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8520,25 +8524,25 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
@@ -8549,10 +8553,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8563,7 +8567,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8575,13 +8579,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8632,13 +8636,13 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
@@ -8650,7 +8654,7 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8661,14 +8665,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8687,16 +8691,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8746,7 +8750,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8758,13 +8762,13 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
@@ -8775,14 +8779,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8795,25 +8799,25 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -8862,7 +8866,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -8874,13 +8878,13 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -8891,10 +8895,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8905,7 +8909,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8917,13 +8921,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8974,39 +8978,39 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9017,7 +9021,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9029,13 +9033,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9086,25 +9090,25 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9115,10 +9119,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9129,7 +9133,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9141,13 +9145,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9174,13 +9178,13 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9198,39 +9202,39 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9241,7 +9245,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9253,13 +9257,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9286,13 +9290,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9310,39 +9314,39 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9365,19 +9369,19 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -9402,13 +9406,13 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -9426,7 +9430,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9438,27 +9442,27 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9481,13 +9485,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9514,13 +9518,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -9538,7 +9542,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -9550,27 +9554,27 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9593,13 +9597,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9626,13 +9630,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9650,7 +9654,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -9662,27 +9666,27 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9693,7 +9697,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -9705,13 +9709,13 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9762,39 +9766,39 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9805,10 +9809,10 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>38</v>
@@ -9817,13 +9821,13 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9850,13 +9854,13 @@
         <v>38</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>38</v>
@@ -9874,39 +9878,39 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9920,7 +9924,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
@@ -9929,16 +9933,16 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9988,7 +9992,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -10000,13 +10004,13 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
@@ -10017,10 +10021,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10031,7 +10035,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10043,13 +10047,13 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10100,13 +10104,13 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
@@ -10118,7 +10122,7 @@
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
@@ -10129,14 +10133,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10155,16 +10159,16 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10214,7 +10218,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10226,13 +10230,13 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
@@ -10243,14 +10247,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10263,25 +10267,25 @@
         <v>38</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10330,7 +10334,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -10342,13 +10346,13 @@
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>38</v>
@@ -10359,10 +10363,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10370,13 +10374,13 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>38</v>
@@ -10385,13 +10389,13 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10442,39 +10446,39 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10485,7 +10489,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -10497,16 +10501,16 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10532,13 +10536,13 @@
         <v>38</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>38</v>
@@ -10556,25 +10560,25 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
@@ -10585,10 +10589,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10599,7 +10603,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -10611,16 +10615,16 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10646,13 +10650,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -10670,19 +10674,19 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
@@ -10699,10 +10703,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10713,7 +10717,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10725,13 +10729,13 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10782,25 +10786,25 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
@@ -10811,10 +10815,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10825,10 +10829,10 @@
         <v>36</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
@@ -10837,13 +10841,13 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10894,39 +10898,39 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10937,7 +10941,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -10949,16 +10953,16 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11008,25 +11012,25 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>38</v>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:15:52+00:00</t>
+    <t>2024-03-25T20:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:47:37+00:00</t>
+    <t>2024-03-25T21:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T21:26:55+00:00</t>
+    <t>2024-03-25T22:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:06:12+00:00</t>
+    <t>2024-03-25T22:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:18:18+00:00</t>
+    <t>2024-03-25T22:49:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:49:56+00:00</t>
+    <t>2024-03-26T03:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T03:52:16+00:00</t>
+    <t>2024-03-26T20:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T20:10:39+00:00</t>
+    <t>2024-04-15T18:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>KinD Lab (http://fhir.kindlab.sickkids.ca)</t>
   </si>
   <si>
     <t>Description</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T18:23:02+00:00</t>
+    <t>2024-04-16T16:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://voicecollab.ai/fhir/StructureDefinition/vbai-encounter</t>
+    <t>https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-encounter</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T16:30:12+00:00</t>
+    <t>2024-05-13T19:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -918,7 +918,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://voicecollab.ai/fhir/StructureDefinition/vbai-patient)
+    <t xml:space="preserve">Reference(https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-patient)
 </t>
   </si>
   <si>

--- a/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T19:43:18+00:00</t>
+    <t>2024-05-29T18:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
